--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA29AF-4403-4175-991B-1BE019359231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC9E4EC-B5FA-4C96-AAD7-D8E44215FC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16245" yWindow="2475" windowWidth="18270" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24240" yWindow="315" windowWidth="18675" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +137,18 @@
   <si>
     <t>캐릭터와 접촉한 적에게 틱당 24, 초당 48의 접촉 피해와 함께 중독 상태이상을 건다.
 중독 대미지는 캐릭터가 보유하고 있는 빨간 하트 최대 체력과 뼈 하트의 수에 비례하며[7] 총 6~7회 적용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 체력 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,67 +293,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="isaac damage">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1354B88B-342A-818A-0506-B787657746FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11458575" y="628650"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -597,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,6 +684,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC9E4EC-B5FA-4C96-AAD7-D8E44215FC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572CA96-CF5F-4B70-99AA-F17438E1E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="315" windowWidth="18675" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34410" yWindow="1680" windowWidth="12690" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,150 @@
   </si>
   <si>
     <t>모든 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말라빠진 아기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DryBaby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 공격을 방어하는 패밀리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvilFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 공격할 때 같이 공격하는 패밀리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블샷친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleShotBuddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 공격할 때 눈물 2개를 V자 궤도로 발사하는 패밀리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠의 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터를 따라다니며 캐릭터와 같이 공격하는 패밀리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막역한친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwornFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 공격할때, 느린속도의 유도 눈물을 발사하는 패밀리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈라지는눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BurstingShots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물이 지형물이나 적에게 닿으면 4갈래로 갈라진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼드 샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quad Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈이 2개 더 생기고, 모든 눈에서 눈물을 발사한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPecac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈물이 적, 벽에 닿으면 주변 적에게 중독 상태를 주는 폭탄이 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 눈물을 정면으로 2발씩 발사한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마의 식칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MomsKnife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 식칼을 항상 소지하게 되며 식칼을 부메랑 처럼 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dice6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 방 안의 모든 아이템을 다시 생성한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 서 있는 자리에 똥을 싸면서 주위의 적을 밀쳐낸다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +392,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -559,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,6 +842,174 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572CA96-CF5F-4B70-99AA-F17438E1E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C816D33-655E-4B3A-BA15-24F3C180185E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34410" yWindow="1680" windowWidth="12690" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11955" yWindow="1800" windowWidth="23865" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPecac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>눈물이 적, 벽에 닿으면 주변 적에게 중독 상태를 주는 폭탄이 됩니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,10 @@
   </si>
   <si>
     <t>캐릭터가 서 있는 자리에 똥을 싸면서 주위의 적을 밀쳐낸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipecac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -948,10 +948,10 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -959,13 +959,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -973,13 +973,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -987,13 +987,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
+++ b/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpecialAbilityInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudo\Documents\GitHub\ProjectI\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C816D33-655E-4B3A-BA15-24F3C180185E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF407FA4-D015-4181-A583-B6EDA0081926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11955" yWindow="1800" windowWidth="23865" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="4560" windowWidth="24135" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quad Shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>눈이 2개 더 생기고, 모든 눈에서 눈물을 발사한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +287,22 @@
   </si>
   <si>
     <t>Ipecac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MutantSpider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초코우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChocoMilk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 방식을 차징 방식으로 바꾸고, 눈물의 크기를 키운다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -934,10 +944,10 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -945,13 +955,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -959,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -973,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -987,13 +997,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1001,18 +1011,33 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
+    </row>
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>